--- a/biology/Médecine/Jean-Robert_Debray/Jean-Robert_Debray.xlsx
+++ b/biology/Médecine/Jean-Robert_Debray/Jean-Robert_Debray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jean-Robert Debray, né à Calais le 7 novembre 1906 et mort à Boulogne-Billancourt[1] le 28 août 1980, est un médecin et homme politique français.
+Jean-Robert Debray, né à Calais le 7 novembre 1906 et mort à Boulogne-Billancourt le 28 août 1980, est un médecin et homme politique français.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est docteur en médecine, spécialiste en urologie. Il est député de la Seine de 1958 à 1962 par une élection qui l'oppose à la candidate UNR Nicole de Hauteclocque. Il est élu membre de l'Académie des sciences morales et politiques en 1965.
 </t>
@@ -543,7 +557,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Contribution à l'étude des suites éloignées de l'hystérectomie (1934)
 Le Malade et son médecin, déontologie médicale (1965). Réédition : Flammarion, Paris, 1992.
